--- a/Data/Remedy_GetData.xlsx
+++ b/Data/Remedy_GetData.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="5955" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Inc" sheetId="1" r:id="rId1"/>
     <sheet name="Create_Inc" sheetId="2" r:id="rId2"/>
-    <sheet name="Update_Inc" sheetId="4" r:id="rId3"/>
-    <sheet name="WO_creation" sheetId="3" r:id="rId4"/>
-    <sheet name="WO_search" sheetId="5" r:id="rId5"/>
-    <sheet name="CRQ_search" sheetId="6" r:id="rId6"/>
-    <sheet name="Netcool_Remedy" sheetId="7" r:id="rId7"/>
+    <sheet name="AddVandorTask" sheetId="9" r:id="rId3"/>
+    <sheet name="Update_Inc" sheetId="4" r:id="rId4"/>
+    <sheet name="WO_creation" sheetId="3" r:id="rId5"/>
+    <sheet name="WO_search" sheetId="5" r:id="rId6"/>
+    <sheet name="CRQ_search" sheetId="6" r:id="rId7"/>
+    <sheet name="Netcool_Remedy" sheetId="7" r:id="rId8"/>
+    <sheet name="Netcool_E2E" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="183">
   <si>
     <t>Incident_Id</t>
   </si>
@@ -135,9 +137,6 @@
     <t>WO_Number</t>
   </si>
   <si>
-    <t>WO0000000159265</t>
-  </si>
-  <si>
     <t>WorkOrder_Id</t>
   </si>
   <si>
@@ -153,9 +152,6 @@
     <t>Assigned</t>
   </si>
   <si>
-    <t>WO0000000159383</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -243,9 +239,6 @@
     <t>GNOC</t>
   </si>
   <si>
-    <t>INC000000475520</t>
-  </si>
-  <si>
     <t>Asignee</t>
   </si>
   <si>
@@ -303,39 +296,6 @@
     <t>Test automation Notes Update</t>
   </si>
   <si>
-    <t>Sourabh Jain</t>
-  </si>
-  <si>
-    <t>Project/OSC</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Remedy Automation</t>
-  </si>
-  <si>
-    <t>INSO486723</t>
-  </si>
-  <si>
     <t>2-Significant/Large</t>
   </si>
   <si>
@@ -375,9 +335,6 @@
     <t>Alarm Severity</t>
   </si>
   <si>
-    <t xml:space="preserve">Oss, Netcool </t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -435,12 +392,6 @@
     <t>INC000000468499</t>
   </si>
   <si>
-    <t>INC000000507460</t>
-  </si>
-  <si>
-    <t>INC000000507462</t>
-  </si>
-  <si>
     <t>Execute_Test</t>
   </si>
   <si>
@@ -450,30 +401,188 @@
     <t>No</t>
   </si>
   <si>
-    <t>INC000000507627</t>
-  </si>
-  <si>
-    <t>INC000000507662</t>
-  </si>
-  <si>
-    <t>INC000000509251</t>
-  </si>
-  <si>
-    <t>INC000000509259</t>
-  </si>
-  <si>
-    <t>INC000000509405</t>
-  </si>
-  <si>
-    <t>INC000000509416</t>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Count (Tally)</t>
+  </si>
+  <si>
+    <t>LastOccureence</t>
+  </si>
+  <si>
+    <t>AlarmKey</t>
+  </si>
+  <si>
+    <t>CDS_ID</t>
+  </si>
+  <si>
+    <t>AlertGroup</t>
+  </si>
+  <si>
+    <t>OwnerUID</t>
+  </si>
+  <si>
+    <t>AlertKey</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>MasterService</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>TTOpCat1</t>
+  </si>
+  <si>
+    <t>TTOpCat2</t>
+  </si>
+  <si>
+    <t>TTOpCat3</t>
+  </si>
+  <si>
+    <t>AlarmImpact</t>
+  </si>
+  <si>
+    <t>FaultImpact</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>TroubleTicket</t>
+  </si>
+  <si>
+    <t>TTNote</t>
+  </si>
+  <si>
+    <t>TTFlag</t>
+  </si>
+  <si>
+    <t>FaultQueue</t>
+  </si>
+  <si>
+    <t>FaultPriority</t>
+  </si>
+  <si>
+    <t>FaultStatus</t>
+  </si>
+  <si>
+    <t>Poll</t>
+  </si>
+  <si>
+    <t>CMDBProductName</t>
+  </si>
+  <si>
+    <t>CMDBCategory</t>
+  </si>
+  <si>
+    <t>TTTitle</t>
+  </si>
+  <si>
+    <t>cact1-rtr-1a</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>nobody</t>
+  </si>
+  <si>
+    <t>EOTS.CDN</t>
+  </si>
+  <si>
+    <t>Eye of the Storm O2 MIB (mnctb-dl380g8-03.uk.pri.o2.com, MTTrapd</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Non-Responsive</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>ASR1000</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>7/7/20, 8:46 AM</t>
+  </si>
+  <si>
+    <t>SNMP_Link_Down</t>
+  </si>
+  <si>
+    <t>Interface is DOWN: ifName= Tunnel1235</t>
+  </si>
+  <si>
+    <t>link_status</t>
+  </si>
+  <si>
+    <t>Eye of the Storm O2 MIB (20006) from cact1-rtr-1a link_status Tunnel1235</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>NC: Interface is DOWN: ifName= Tunnel1235</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Vandor_company</t>
+  </si>
+  <si>
+    <t>Managing_Operator</t>
+  </si>
+  <si>
+    <t>ERICSSON</t>
+  </si>
+  <si>
+    <t>CI_value1</t>
+  </si>
+  <si>
+    <t>CI_value2</t>
+  </si>
+  <si>
+    <t>CI_value3</t>
+  </si>
+  <si>
+    <t>089585n1</t>
+  </si>
+  <si>
+    <t>004848n0</t>
+  </si>
+  <si>
+    <t>WO0000000160014</t>
+  </si>
+  <si>
+    <t>INC000000517588</t>
+  </si>
+  <si>
+    <t>INC000000517590</t>
+  </si>
+  <si>
+    <t>INC000000517210</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,29 +590,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,26 +604,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -595,131 +665,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -734,44 +684,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,35 +981,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:V3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="14" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="16" max="17" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="18" max="21" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="21" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1112,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>14</v>
@@ -1133,93 +1062,28 @@
         <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1244,44 +1108,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="15" max="17" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="42.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -1290,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -1305,10 +1170,10 @@
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>18</v>
@@ -1317,10 +1182,10 @@
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>10</v>
@@ -1335,13 +1200,13 @@
         <v>23</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>13</v>
@@ -1350,9 +1215,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -1361,16 +1226,16 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -1379,63 +1244,63 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -1450,51 +1315,51 @@
         <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="P3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1503,16 +1368,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1521,75 +1386,148 @@
         <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="T4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,33 +1541,33 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1641,28 +1579,28 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1670,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1678,12 +1616,12 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1691,7 +1629,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1705,26 +1643,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
@@ -1747,7 +1685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1766,473 +1704,636 @@
       <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:7">
-      <c r="A12" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="13">
-        <v>43962</v>
-      </c>
-      <c r="D12" s="13">
-        <v>43963</v>
-      </c>
-      <c r="E12" s="13">
-        <v>43964</v>
-      </c>
-      <c r="F12" s="13">
-        <v>43965</v>
-      </c>
-      <c r="G12" s="14">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A14" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="19">
-        <v>8</v>
-      </c>
-      <c r="D14" s="19">
-        <v>8</v>
-      </c>
-      <c r="E14" s="19">
-        <v>8</v>
-      </c>
-      <c r="F14" s="19">
-        <v>8</v>
-      </c>
-      <c r="G14" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:B12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="28.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="26.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="24.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="9.140625" style="13" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="O2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>1587721</v>
+      </c>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16">
+        <v>7229</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
+    <row r="3" spans="1:32" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>1587721</v>
+      </c>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16">
+        <v>7229</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="23" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="23" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="23" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="23" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="23" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="23" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="23" width="7.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="23" width="8.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="7.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="23" width="12.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="23" width="14.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="23" width="8.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="23" width="6.42578125" collapsed="true"/>
-    <col min="15" max="17" bestFit="true" customWidth="true" style="23" width="28.5703125" collapsed="true"/>
-    <col min="18" max="20" bestFit="true" customWidth="true" style="23" width="26.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="23" width="13.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="23" width="15.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="23" width="13.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="23" width="15.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="23" width="16.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="23" width="20.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="23" width="12.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="23" width="24.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="23" width="7.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="23" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="23" width="10.0" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="23" width="14.140625" collapsed="true"/>
-    <col min="33" max="16384" style="23" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="62.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="52.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="R1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="U1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="60">
-      <c r="A2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA2" s="21">
-        <v>1587721</v>
-      </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21">
-        <v>7229</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF2" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="60">
-      <c r="A3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA3" s="21">
-        <v>1587721</v>
-      </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21">
-        <v>7229</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF3" s="21">
-        <v>3</v>
+      <c r="V2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Remedy_GetData.xlsx
+++ b/Data/Remedy_GetData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Inc" sheetId="1" r:id="rId1"/>
@@ -566,16 +566,16 @@
     <t>004848n0</t>
   </si>
   <si>
-    <t>WO0000000160014</t>
-  </si>
-  <si>
-    <t>INC000000517588</t>
-  </si>
-  <si>
     <t>INC000000517590</t>
   </si>
   <si>
     <t>INC000000517210</t>
+  </si>
+  <si>
+    <t>INC000000533091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO0000000160163 </t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
         <v>73</v>
       </c>
       <c r="W2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
         <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>177</v>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Remedy_GetData.xlsx
+++ b/Data/Remedy_GetData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Inc" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Netcool_E2E" sheetId="8" r:id="rId3"/>
     <sheet name="AddVandorTask" sheetId="9" r:id="rId4"/>
     <sheet name="Update_Inc" sheetId="4" r:id="rId5"/>
-    <sheet name="WO_creation" sheetId="3" r:id="rId6"/>
-    <sheet name="WO_search" sheetId="5" r:id="rId7"/>
-    <sheet name="CRQ_search" sheetId="6" r:id="rId8"/>
-    <sheet name="Netcool_Remedy" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="WO_creation" sheetId="3" r:id="rId7"/>
+    <sheet name="WO_search" sheetId="5" r:id="rId8"/>
+    <sheet name="CRQ_search" sheetId="6" r:id="rId9"/>
+    <sheet name="Netcool_Remedy" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="190">
   <si>
     <t>Incident_Id</t>
   </si>
@@ -479,9 +480,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>INC000000533758</t>
-  </si>
-  <si>
     <t>5g data</t>
   </si>
   <si>
@@ -593,16 +591,20 @@
     <t>INC000000534443</t>
   </si>
   <si>
-    <t>INC000000534445</t>
-  </si>
-  <si>
     <t>INC000000534447</t>
+  </si>
+  <si>
+    <t>INC000000534454</t>
+  </si>
+  <si>
+    <t>WO0000000160194</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,30 +964,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="28.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="21" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="29.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" style="1" width="28.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="28.5703125" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="18" max="21" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="23" max="16384" style="1" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1058,7 +1060,340 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="40.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="8.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="7.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="7" width="12.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="7" width="14.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="7" width="8.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="7" width="6.42578125" collapsed="true"/>
+    <col min="15" max="17" bestFit="true" customWidth="true" style="7" width="28.5703125" collapsed="true"/>
+    <col min="18" max="20" bestFit="true" customWidth="true" style="7" width="26.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="7" width="13.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="7" width="15.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="7" width="13.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="7" width="15.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="7" width="16.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="7" width="20.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="7" width="12.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="7" width="24.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="7" width="7.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="7" width="11.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="7" width="10.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="33" max="16384" style="7" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>1587721</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10">
+        <v>7229</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>1587721</v>
+      </c>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10">
+        <v>7229</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1072,31 +1407,31 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="41.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="17" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="15" max="17" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1122,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>40</v>
@@ -1181,10 +1516,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -1199,25 +1534,25 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>147</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>50</v>
@@ -1252,10 +1587,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -1270,25 +1605,25 @@
         <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>147</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>50</v>
@@ -1323,10 +1658,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -1341,25 +1676,25 @@
         <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>147</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>50</v>
@@ -1394,10 +1729,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -1412,25 +1747,25 @@
         <v>15</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>147</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>50</v>
@@ -1465,10 +1800,10 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -1483,13 +1818,13 @@
         <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>147</v>
@@ -1498,10 +1833,10 @@
         <v>146</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>50</v>
@@ -1536,10 +1871,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -1554,13 +1889,13 @@
         <v>15</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>147</v>
@@ -1569,10 +1904,10 @@
         <v>146</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>50</v>
@@ -1607,16 +1942,16 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>20</v>
@@ -1625,13 +1960,13 @@
         <v>15</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>147</v>
@@ -1640,10 +1975,10 @@
         <v>146</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>50</v>
@@ -1678,10 +2013,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>48</v>
@@ -1696,13 +2031,13 @@
         <v>15</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>147</v>
@@ -1711,10 +2046,10 @@
         <v>146</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>50</v>
@@ -1749,16 +2084,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>20</v>
@@ -1767,13 +2102,13 @@
         <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>147</v>
@@ -1782,10 +2117,10 @@
         <v>146</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>50</v>
@@ -1820,13 +2155,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>59</v>
@@ -1838,13 +2173,13 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>147</v>
@@ -1853,10 +2188,10 @@
         <v>146</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>50</v>
@@ -1891,10 +2226,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>48</v>
@@ -1909,25 +2244,25 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>146</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>50</v>
@@ -1948,7 +2283,7 @@
         <v>50</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1962,10 +2297,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
@@ -1980,13 +2315,13 @@
         <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>147</v>
@@ -1995,10 +2330,10 @@
         <v>146</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>50</v>
@@ -2033,10 +2368,10 @@
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>48</v>
@@ -2051,25 +2386,25 @@
         <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>146</v>
       </c>
       <c r="O14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>50</v>
@@ -2104,10 +2439,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>18</v>
@@ -2122,13 +2457,13 @@
         <v>15</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>147</v>
@@ -2137,10 +2472,10 @@
         <v>146</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>50</v>
@@ -2175,10 +2510,10 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
@@ -2193,13 +2528,13 @@
         <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>147</v>
@@ -2208,10 +2543,10 @@
         <v>146</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>50</v>
@@ -2246,10 +2581,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>48</v>
@@ -2264,13 +2599,13 @@
         <v>15</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>147</v>
@@ -2279,10 +2614,10 @@
         <v>146</v>
       </c>
       <c r="O17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>50</v>
@@ -2317,10 +2652,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
@@ -2335,25 +2670,25 @@
         <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>146</v>
       </c>
       <c r="O18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>50</v>
@@ -2371,7 +2706,7 @@
         <v>50</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>37</v>
@@ -2393,37 +2728,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="41.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="62.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="52.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="74.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="52.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -2626,18 +2961,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2675,15 +3010,15 @@
         <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
@@ -2694,18 +3029,18 @@
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -2716,18 +3051,18 @@
         <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -2738,18 +3073,18 @@
         <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -2763,26 +3098,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="42.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="50.140625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2822,25 +3157,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>146</v>
@@ -2849,220 +3184,10 @@
         <v>147</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3072,6 +3197,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3081,13 +3219,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3132,35 +3270,8 @@
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>145</v>
+      <c r="G2" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3174,22 +3285,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3200,329 +3311,235 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="17" width="28.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="20" width="26.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="24.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>1587721</v>
-      </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10">
-        <v>7229</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>1587721</v>
-      </c>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10">
-        <v>7229</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>3</v>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
